--- a/data/climate_data_availability/6164_data.xlsx
+++ b/data/climate_data_availability/6164_data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_A27035E69653734D3A2EDE4AFCCBAAF00FEA4DF3" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179016" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -32,16 +36,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -62,16 +63,28 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
   </si>
   <si>
-    <t>hygrometricite_max</t>
+    <t>t3</t>
   </si>
   <si>
-    <t>hygrometricite_min</t>
+    <t>actino</t>
+  </si>
+  <si>
+    <t>hygro</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Alt</t>
   </si>
   <si>
     <t>Matadi</t>
@@ -80,8 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,35 +187,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="30">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,37 +517,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -566,13 +579,25 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>6164</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -619,13 +644,16 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>6164</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -672,13 +700,16 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>6164</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -725,13 +756,16 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>6164</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -778,13 +812,16 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>6164</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -831,13 +868,16 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6164</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -884,13 +924,16 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>6164</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -937,13 +980,16 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>6164</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -990,13 +1036,16 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>6164</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -1043,13 +1092,16 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>6164</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -1096,13 +1148,16 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>6164</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1149,13 +1204,16 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>6164</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1202,13 +1260,16 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>6164</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1255,13 +1316,16 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>6164</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1308,13 +1372,16 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>6164</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1361,13 +1428,16 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>6164</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1414,13 +1484,16 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>6164</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -1467,13 +1540,16 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>6164</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1520,13 +1596,16 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>6164</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1573,13 +1652,16 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>6164</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1626,13 +1708,16 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>6164</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -1679,13 +1764,16 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>6164</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -1732,13 +1820,16 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>6164</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1785,13 +1876,16 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>6164</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1838,13 +1932,16 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>6164</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1891,13 +1988,16 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>6164</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1944,13 +2044,16 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>6164</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -1997,13 +2100,16 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>6164</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -2050,13 +2156,16 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>6164</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -2103,13 +2212,16 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>6164</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -2156,13 +2268,16 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>6164</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -2209,13 +2324,16 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>6164</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -2262,13 +2380,16 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>6164</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>11</v>
@@ -2315,13 +2436,16 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>6164</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>12</v>
@@ -2368,13 +2492,16 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>6164</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2421,13 +2548,16 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>6164</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2474,13 +2604,16 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>6164</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -2525,6 +2658,9 @@
         <v>0</v>
       </c>
       <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
         <v>0</v>
       </c>
     </row>
@@ -2540,12 +2676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2557,12 +2693,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
